--- a/app/data/absenteeism_data_48.xlsx
+++ b/app/data/absenteeism_data_48.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>70722</v>
+        <v>64865</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Júlia Alves</t>
+          <t>Gabriel Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>11845.09</v>
+        <v>7322.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70780</v>
+        <v>42332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pedro da Rocha</t>
+          <t>Catarina Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>6492.46</v>
+        <v>5637.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43278</v>
+        <v>95632</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Mariana Barbosa</t>
+          <t>Daniel Monteiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,19 +555,19 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>9959.700000000001</v>
+        <v>10315.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23350</v>
+        <v>70871</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Augusto Pires</t>
+          <t>Luiz Felipe Alves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>3221.24</v>
+        <v>10324.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26554</v>
+        <v>65710</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renan Porto</t>
+          <t>Rafael Viana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>9742.26</v>
+        <v>11364.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32583</v>
+        <v>90300</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Isabelly Cardoso</t>
+          <t>João Lucas Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>4622.24</v>
+        <v>6893.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92738</v>
+        <v>11564</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabrielly Aragão</t>
+          <t>João Vitor Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>7494.92</v>
+        <v>4322.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44618</v>
+        <v>29652</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Benjamin Moraes</t>
+          <t>Pietra Nunes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>7824.17</v>
+        <v>6611.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33435</v>
+        <v>81802</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Renan Cardoso</t>
+          <t>Vicente Pires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>4030.94</v>
+        <v>10785.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84441</v>
+        <v>61251</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Leonardo Porto</t>
+          <t>Kevin Aragão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>3082.51</v>
+        <v>8604.17</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_48.xlsx
+++ b/app/data/absenteeism_data_48.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11433</v>
+        <v>16875</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Miguel Porto</t>
+          <t>Manuela Martins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>9975.27</v>
+        <v>7814.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94767</v>
+        <v>90871</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leandro Oliveira</t>
+          <t>Dra. Joana Peixoto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,138 +523,138 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>11072.16</v>
+        <v>10150.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39625</v>
+        <v>82395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thiago Sales</t>
+          <t>Vitor Hugo Souza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>7963.95</v>
+        <v>6503.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47190</v>
+        <v>9451</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maysa Lopes</t>
+          <t>Pedro Miguel Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>6091.73</v>
+        <v>5439.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14162</v>
+        <v>36499</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Elisa Pereira</t>
+          <t>Heitor Almeida</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>9585.190000000001</v>
+        <v>4360.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96802</v>
+        <v>6290</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juliana Rezende</t>
+          <t>Leonardo Farias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>3269.82</v>
+        <v>10638.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32086</v>
+        <v>10549</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Antônio Jesus</t>
+          <t>Yuri Freitas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,89 +664,89 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>7649.07</v>
+        <v>3680.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43410</v>
+        <v>70466</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bernardo Melo</t>
+          <t>Joaquim da Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>11203.37</v>
+        <v>10825.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14341</v>
+        <v>41463</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Raquel Pires</t>
+          <t>Carlos Eduardo Peixoto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>2614.43</v>
+        <v>11795.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44634</v>
+        <v>37282</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Samuel Dias</t>
+          <t>Pedro Miguel da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>7877.87</v>
+        <v>6952.32</v>
       </c>
     </row>
   </sheetData>
